--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/SALES_REPORTS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/API/TJT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D41AA0-94DF-0942-A3AD-22B33CF023AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CA214B-0F92-1640-B312-79089A35DFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="920" windowWidth="26840" windowHeight="14600" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="24.25 Budget Targets" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$C$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24.25 Budget Targets'!$A$1:$C$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Fixture Name</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>Arsenal Women v Liverpool Women</t>
+  </si>
+  <si>
+    <t>FA Cup</t>
+  </si>
+  <si>
+    <t>Arsenal v Newcastle United</t>
   </si>
 </sst>
 </file>
@@ -237,8 +243,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{066043E1-9B4C-CF4A-9F5C-F96834F9F44D}" name="Table1" displayName="Table1" ref="A1:C35" totalsRowShown="0">
-  <autoFilter ref="A1:C35" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{066043E1-9B4C-CF4A-9F5C-F96834F9F44D}" name="Table1" displayName="Table1" ref="A1:C37" totalsRowShown="0">
+  <autoFilter ref="A1:C37" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8ABEC191-56FB-3547-AABF-6D1CFED75A85}" name="EventCompetition"/>
     <tableColumn id="2" xr3:uid="{F4E9E6A5-D5F0-614E-B547-B903035C3583}" name="Fixture Name"/>
@@ -565,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -668,13 +674,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="1">
-        <v>10000</v>
+        <v>48256</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -745,68 +751,68 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1">
-        <v>469797</v>
+        <v>199265</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
-        <v>490113</v>
+        <v>199265</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>390059</v>
+        <v>199265</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1">
-        <v>394122</v>
+        <v>469797</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1">
-        <v>588136</v>
+        <v>490113</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -814,32 +820,32 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
-        <v>492653</v>
+        <v>390059</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
-        <v>588136</v>
+        <v>394122</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1">
-        <v>490113</v>
+        <v>588136</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -847,7 +853,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1">
         <v>492653</v>
@@ -855,24 +861,24 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>588136</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1">
-        <v>390059</v>
+        <v>490113</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -880,10 +886,10 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1">
-        <v>807500</v>
+        <v>492653</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -891,21 +897,21 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1">
-        <v>617500</v>
+        <v>390059</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C30" s="1">
-        <v>285000</v>
+        <v>807500</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -913,21 +919,21 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C31" s="1">
-        <v>807500</v>
+        <v>617500</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1">
-        <v>617500</v>
+        <v>285000</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -935,31 +941,53 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1">
-        <v>712500</v>
+        <v>807500</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1">
-        <v>97412</v>
+        <v>617500</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <v>712500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>43</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>97412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C37" s="1">
         <v>97412</v>
       </c>
     </row>

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/API/TJT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CA214B-0F92-1640-B312-79089A35DFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DFC323-355D-5941-BB1B-BF996AC4385D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
@@ -574,7 +574,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DFC323-355D-5941-BB1B-BF996AC4385D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADFD835-46F7-1B49-B94E-FD853C84FCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
+    <workbookView xWindow="74800" yWindow="2600" windowWidth="29400" windowHeight="19280" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
   <sheets>
     <sheet name="24.25 Budget Targets" sheetId="2" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Premier League</t>
   </si>
   <si>
-    <t>Arsenal v West Ham</t>
-  </si>
-  <si>
     <t>Arsenal Women v Tottenham Hotspur Women</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>Arsenal v Newcastle United</t>
+  </si>
+  <si>
+    <t>Arsenal v West Ham United</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,15 +592,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1">
         <v>113800</v>
@@ -608,10 +608,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1">
         <v>113800</v>
@@ -619,10 +619,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1">
         <v>43860</v>
@@ -630,10 +630,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1">
         <v>28636</v>
@@ -641,10 +641,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>52632</v>
@@ -652,10 +652,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1">
         <v>10000</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
         <v>38182</v>
@@ -674,10 +674,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1">
         <v>48256</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
         <v>10000</v>
@@ -696,10 +696,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
         <v>38182</v>
@@ -707,10 +707,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <v>10000</v>
@@ -718,10 +718,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
         <v>52632</v>
@@ -732,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1">
         <v>469797</v>
@@ -743,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1">
         <v>319462</v>
@@ -751,10 +751,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
         <v>380000</v>
@@ -762,10 +762,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1">
         <v>199265</v>
@@ -773,10 +773,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1">
         <v>199265</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1">
         <v>199265</v>
@@ -798,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1">
         <v>469797</v>
@@ -806,10 +806,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1">
         <v>490113</v>
@@ -820,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1">
         <v>390059</v>
@@ -828,10 +828,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
         <v>394122</v>
@@ -842,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
         <v>588136</v>
@@ -853,7 +853,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="1">
         <v>492653</v>
@@ -864,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1">
         <v>588136</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1">
         <v>490113</v>
@@ -886,7 +886,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1">
         <v>492653</v>
@@ -897,7 +897,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="1">
         <v>390059</v>
@@ -908,7 +908,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="1">
         <v>807500</v>
@@ -919,7 +919,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1">
         <v>617500</v>
@@ -927,10 +927,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1">
         <v>285000</v>
@@ -941,7 +941,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" s="1">
         <v>807500</v>
@@ -952,7 +952,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1">
         <v>617500</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADFD835-46F7-1B49-B94E-FD853C84FCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C502F9-2254-954B-A6A0-7513B8A922E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="74800" yWindow="2600" windowWidth="29400" windowHeight="19280" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
+    <workbookView xWindow="28960" yWindow="660" windowWidth="38080" windowHeight="19500" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
   <sheets>
     <sheet name="24.25 Budget Targets" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24.25 Budget Targets'!$A$1:$C$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24.25 Budget Targets'!$A$1:$C$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>Fixture Name</t>
   </si>
@@ -179,7 +179,19 @@
     <t>Arsenal v Newcastle United</t>
   </si>
   <si>
+    <t>Arsenal Women UWCL Quarter-Final (Date TBC)</t>
+  </si>
+  <si>
+    <t>Arsenal v Fulham</t>
+  </si>
+  <si>
+    <t>Arsenal v Brentford</t>
+  </si>
+  <si>
     <t>Arsenal v West Ham United</t>
+  </si>
+  <si>
+    <t>Arsenal UEFA Champions League Round of 16</t>
   </si>
 </sst>
 </file>
@@ -243,8 +255,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{066043E1-9B4C-CF4A-9F5C-F96834F9F44D}" name="Table1" displayName="Table1" ref="A1:C37" totalsRowShown="0">
-  <autoFilter ref="A1:C37" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{066043E1-9B4C-CF4A-9F5C-F96834F9F44D}" name="Table1" displayName="Table1" ref="A1:C43" totalsRowShown="0">
+  <autoFilter ref="A1:C43" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C43">
+    <sortCondition descending="1" ref="A1:A43"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8ABEC191-56FB-3547-AABF-6D1CFED75A85}" name="EventCompetition"/>
     <tableColumn id="2" xr3:uid="{F4E9E6A5-D5F0-614E-B547-B903035C3583}" name="Fixture Name"/>
@@ -571,16 +586,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="48.5" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -597,134 +612,134 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1">
-        <v>113800</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1">
-        <v>113800</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1">
-        <v>43860</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>28636</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
-        <v>52632</v>
+        <v>490113</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
-        <v>10000</v>
+        <v>490113</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
-        <v>38182</v>
+        <v>394122</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
-        <v>48256</v>
+        <v>490113</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>10000</v>
+        <v>285000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>38182</v>
+        <v>570000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1">
-        <v>10000</v>
+        <v>469797</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1">
-        <v>52632</v>
+        <v>570000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -732,10 +747,10 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1">
-        <v>469797</v>
+        <v>807500</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -751,46 +766,46 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1">
-        <v>380000</v>
+        <v>617500</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1">
-        <v>199265</v>
+        <v>469797</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
-        <v>199265</v>
+        <v>390059</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1">
-        <v>199265</v>
+        <v>588136</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -798,21 +813,21 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
-        <v>469797</v>
+        <v>492653</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>490113</v>
+        <v>588136</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -820,21 +835,21 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1">
-        <v>390059</v>
+        <v>492653</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1">
-        <v>394122</v>
+        <v>390059</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -842,10 +857,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1">
-        <v>588136</v>
+        <v>807500</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -853,10 +868,10 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1">
-        <v>492653</v>
+        <v>617500</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -864,21 +879,21 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1">
-        <v>588136</v>
+        <v>807500</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1">
-        <v>490113</v>
+        <v>617500</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -886,109 +901,175 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1">
-        <v>492653</v>
+        <v>712500</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1">
-        <v>390059</v>
+        <v>113800</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1">
-        <v>807500</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1">
-        <v>617500</v>
+        <v>113800</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>285000</v>
+        <v>97412</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1">
-        <v>807500</v>
+        <v>97412</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1">
-        <v>617500</v>
+        <v>199265</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C35" s="1">
-        <v>712500</v>
+        <v>199265</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1">
-        <v>97412</v>
+        <v>199265</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C37" s="1">
-        <v>97412</v>
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="1">
+        <v>28636</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="1">
+        <v>52632</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="1">
+        <v>38182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="1">
+        <v>48256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="1">
+        <v>38182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1">
+        <v>52632</v>
       </c>
     </row>
   </sheetData>

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C502F9-2254-954B-A6A0-7513B8A922E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2C8E9E-A22D-904A-BFFF-8A0CE70A2F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28960" yWindow="660" windowWidth="38080" windowHeight="19500" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
@@ -179,9 +179,6 @@
     <t>Arsenal v Newcastle United</t>
   </si>
   <si>
-    <t>Arsenal Women UWCL Quarter-Final (Date TBC)</t>
-  </si>
-  <si>
     <t>Arsenal v Fulham</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>Arsenal UEFA Champions League Round of 16</t>
+  </si>
+  <si>
+    <t>Arsenal Women v Real Madrid Women</t>
   </si>
 </sst>
 </file>
@@ -588,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -626,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1">
         <v>30000</v>
@@ -659,10 +659,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1">
-        <v>490113</v>
+        <v>712500</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -736,7 +736,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1">
         <v>570000</v>
@@ -769,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1">
         <v>617500</v>
@@ -890,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="1">
         <v>617500</v>

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2C8E9E-A22D-904A-BFFF-8A0CE70A2F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85B1695-36BC-B644-9F58-032435172963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28960" yWindow="660" windowWidth="38080" windowHeight="19500" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
@@ -188,10 +188,10 @@
     <t>Arsenal v West Ham United</t>
   </si>
   <si>
-    <t>Arsenal UEFA Champions League Round of 16</t>
-  </si>
-  <si>
     <t>Arsenal Women v Real Madrid Women</t>
+  </si>
+  <si>
+    <t>Arsenal v PSV</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1">
         <v>30000</v>
@@ -659,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>712500</v>

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85B1695-36BC-B644-9F58-032435172963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A1B9D8-05AC-EE4B-9CF4-CF6BE7912151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28960" yWindow="660" windowWidth="38080" windowHeight="19500" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
+    <workbookView xWindow="67920" yWindow="880" windowWidth="38080" windowHeight="19500" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
   <sheets>
     <sheet name="24.25 Budget Targets" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24.25 Budget Targets'!$A$1:$C$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24.25 Budget Targets'!$A$1:$C$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>Fixture Name</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Arsenal v PSV</t>
+  </si>
+  <si>
+    <t>Arsenal v A.F.C. Bournemouth</t>
   </si>
 </sst>
 </file>
@@ -255,10 +258,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{066043E1-9B4C-CF4A-9F5C-F96834F9F44D}" name="Table1" displayName="Table1" ref="A1:C43" totalsRowShown="0">
-  <autoFilter ref="A1:C43" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C43">
-    <sortCondition descending="1" ref="A1:A43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{066043E1-9B4C-CF4A-9F5C-F96834F9F44D}" name="Table1" displayName="Table1" ref="A1:C44" totalsRowShown="0">
+  <autoFilter ref="A1:C44" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C44">
+    <sortCondition descending="1" ref="A1:A44"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8ABEC191-56FB-3547-AABF-6D1CFED75A85}" name="EventCompetition"/>
@@ -586,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,10 +717,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1">
-        <v>570000</v>
+        <v>617500</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -725,10 +728,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>469797</v>
+        <v>570000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -736,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1">
-        <v>570000</v>
+        <v>469797</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -747,10 +750,10 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1">
-        <v>807500</v>
+        <v>570000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -758,10 +761,10 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1">
-        <v>319462</v>
+        <v>807500</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -769,10 +772,10 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1">
-        <v>617500</v>
+        <v>319462</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -780,10 +783,10 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1">
-        <v>469797</v>
+        <v>617500</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -791,10 +794,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1">
-        <v>390059</v>
+        <v>469797</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -802,10 +805,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1">
-        <v>588136</v>
+        <v>390059</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -813,10 +816,10 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
-        <v>492653</v>
+        <v>588136</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -824,10 +827,10 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
-        <v>588136</v>
+        <v>492653</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -835,10 +838,10 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>492653</v>
+        <v>588136</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -846,10 +849,10 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1">
-        <v>390059</v>
+        <v>492653</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -857,10 +860,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1">
-        <v>807500</v>
+        <v>390059</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -868,10 +871,10 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1">
-        <v>617500</v>
+        <v>807500</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -879,10 +882,10 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1">
-        <v>807500</v>
+        <v>617500</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -890,10 +893,10 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C27" s="1">
-        <v>617500</v>
+        <v>807500</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -901,54 +904,54 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1">
-        <v>712500</v>
+        <v>617500</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1">
-        <v>113800</v>
+        <v>712500</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1">
-        <v>380000</v>
+        <v>113800</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C31" s="1">
-        <v>113800</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1">
-        <v>97412</v>
+        <v>113800</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -956,7 +959,7 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1">
         <v>97412</v>
@@ -964,13 +967,13 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
-        <v>199265</v>
+        <v>97412</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -978,7 +981,7 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C35" s="1">
         <v>199265</v>
@@ -989,7 +992,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C36" s="1">
         <v>199265</v>
@@ -997,13 +1000,13 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1">
-        <v>43860</v>
+        <v>199265</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1011,10 +1014,10 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1">
-        <v>28636</v>
+        <v>43860</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1022,10 +1025,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C39" s="1">
-        <v>52632</v>
+        <v>28636</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1033,10 +1036,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C40" s="1">
-        <v>38182</v>
+        <v>52632</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1044,10 +1047,10 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C41" s="1">
-        <v>48256</v>
+        <v>38182</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1055,10 +1058,10 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1">
-        <v>38182</v>
+        <v>48256</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1066,9 +1069,20 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="1">
+        <v>38182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C44" s="1">
         <v>52632</v>
       </c>
     </row>

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A1B9D8-05AC-EE4B-9CF4-CF6BE7912151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7F9C7C-7301-8541-BF6C-664A2BAABB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67920" yWindow="880" windowWidth="38080" windowHeight="19500" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
   <sheets>
     <sheet name="24.25 Budget Targets" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24.25 Budget Targets'!$A$1:$C$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24.25 Budget Targets'!$A$1:$C$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t>Fixture Name</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Arsenal v A.F.C. Bournemouth</t>
+  </si>
+  <si>
+    <t>Arsenal vs Real Madrid</t>
   </si>
 </sst>
 </file>
@@ -258,10 +261,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{066043E1-9B4C-CF4A-9F5C-F96834F9F44D}" name="Table1" displayName="Table1" ref="A1:C44" totalsRowShown="0">
-  <autoFilter ref="A1:C44" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C44">
-    <sortCondition descending="1" ref="A1:A44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{066043E1-9B4C-CF4A-9F5C-F96834F9F44D}" name="Table1" displayName="Table1" ref="A1:C45" totalsRowShown="0">
+  <autoFilter ref="A1:C45" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C45">
+    <sortCondition descending="1" ref="A1:A45"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8ABEC191-56FB-3547-AABF-6D1CFED75A85}" name="EventCompetition"/>
@@ -589,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -706,21 +709,21 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1">
-        <v>285000</v>
+        <v>760000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
-        <v>617500</v>
+        <v>285000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -728,10 +731,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1">
-        <v>570000</v>
+        <v>617500</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -739,10 +742,10 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
-        <v>469797</v>
+        <v>570000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -750,10 +753,10 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1">
-        <v>570000</v>
+        <v>469797</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -761,10 +764,10 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1">
-        <v>807500</v>
+        <v>570000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -772,10 +775,10 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1">
-        <v>319462</v>
+        <v>807500</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -783,10 +786,10 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1">
-        <v>617500</v>
+        <v>319462</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -794,10 +797,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1">
-        <v>469797</v>
+        <v>617500</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -805,10 +808,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1">
-        <v>390059</v>
+        <v>469797</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -816,10 +819,10 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
-        <v>588136</v>
+        <v>390059</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -827,10 +830,10 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
-        <v>492653</v>
+        <v>588136</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -838,10 +841,10 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1">
-        <v>588136</v>
+        <v>492653</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -849,10 +852,10 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
-        <v>492653</v>
+        <v>588136</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -860,10 +863,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1">
-        <v>390059</v>
+        <v>492653</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -871,10 +874,10 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="1">
-        <v>807500</v>
+        <v>390059</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -882,10 +885,10 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1">
-        <v>617500</v>
+        <v>807500</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -893,10 +896,10 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1">
-        <v>807500</v>
+        <v>617500</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -904,10 +907,10 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1">
-        <v>617500</v>
+        <v>807500</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -915,54 +918,54 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1">
-        <v>712500</v>
+        <v>617500</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1">
-        <v>113800</v>
+        <v>712500</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1">
-        <v>380000</v>
+        <v>113800</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1">
-        <v>113800</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
-        <v>97412</v>
+        <v>113800</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -970,7 +973,7 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1">
         <v>97412</v>
@@ -978,13 +981,13 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="C35" s="1">
-        <v>199265</v>
+        <v>97412</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -992,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1">
         <v>199265</v>
@@ -1003,7 +1006,7 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1">
         <v>199265</v>
@@ -1011,13 +1014,13 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1">
-        <v>43860</v>
+        <v>199265</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1025,10 +1028,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C39" s="1">
-        <v>28636</v>
+        <v>43860</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1036,10 +1039,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40" s="1">
-        <v>52632</v>
+        <v>28636</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1047,10 +1050,10 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C41" s="1">
-        <v>38182</v>
+        <v>52632</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1058,10 +1061,10 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C42" s="1">
-        <v>48256</v>
+        <v>38182</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1069,10 +1072,10 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1">
-        <v>38182</v>
+        <v>48256</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1080,9 +1083,20 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="1">
+        <v>38182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C45" s="1">
         <v>52632</v>
       </c>
     </row>

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7F9C7C-7301-8541-BF6C-664A2BAABB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00206759-C921-0B4D-8D5C-CD7868668E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
+    <workbookView xWindow="30840" yWindow="800" windowWidth="21260" windowHeight="14880" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
   <sheets>
     <sheet name="24.25 Budget Targets" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24.25 Budget Targets'!$A$1:$C$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24.25 Budget Targets'!$A$1:$C$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t>Fixture Name</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Arsenal vs Real Madrid</t>
+  </si>
+  <si>
+    <t>Arsenal Women v Manchester United Women</t>
   </si>
 </sst>
 </file>
@@ -261,10 +264,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{066043E1-9B4C-CF4A-9F5C-F96834F9F44D}" name="Table1" displayName="Table1" ref="A1:C45" totalsRowShown="0">
-  <autoFilter ref="A1:C45" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C45">
-    <sortCondition descending="1" ref="A1:A45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{066043E1-9B4C-CF4A-9F5C-F96834F9F44D}" name="Table1" displayName="Table1" ref="A1:C46" totalsRowShown="0">
+  <autoFilter ref="A1:C46" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C46">
+    <sortCondition descending="1" ref="A1:A46"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8ABEC191-56FB-3547-AABF-6D1CFED75A85}" name="EventCompetition"/>
@@ -592,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1028,10 +1031,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C39" s="1">
-        <v>43860</v>
+        <v>52632</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1039,10 +1042,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1">
-        <v>28636</v>
+        <v>43860</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1050,10 +1053,10 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C41" s="1">
-        <v>52632</v>
+        <v>28636</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1061,10 +1064,10 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C42" s="1">
-        <v>38182</v>
+        <v>52632</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1072,10 +1075,10 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C43" s="1">
-        <v>48256</v>
+        <v>38182</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1083,10 +1086,10 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C44" s="1">
-        <v>38182</v>
+        <v>48256</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1094,9 +1097,20 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="1">
+        <v>38182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C46" s="1">
         <v>52632</v>
       </c>
     </row>

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00206759-C921-0B4D-8D5C-CD7868668E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8341C433-D5F4-8642-A225-8DE2350825D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="800" windowWidth="21260" windowHeight="14880" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
+    <workbookView xWindow="30840" yWindow="780" windowWidth="21260" windowHeight="14880" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
   <sheets>
     <sheet name="24.25 Budget Targets" sheetId="2" r:id="rId1"/>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8341C433-D5F4-8642-A225-8DE2350825D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0973737-FD88-1042-AD34-F9B6CE31196A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="780" windowWidth="21260" windowHeight="14880" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
+    <workbookView xWindow="30840" yWindow="780" windowWidth="26700" windowHeight="14880" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
   <sheets>
     <sheet name="24.25 Budget Targets" sheetId="2" r:id="rId1"/>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0973737-FD88-1042-AD34-F9B6CE31196A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CB8F31-C074-CD4B-9D0F-3BE4B272D12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="780" windowWidth="26700" windowHeight="14880" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
+    <workbookView xWindow="34000" yWindow="880" windowWidth="26700" windowHeight="14880" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
   <sheets>
     <sheet name="24.25 Budget Targets" sheetId="2" r:id="rId1"/>
@@ -197,10 +197,10 @@
     <t>Arsenal v A.F.C. Bournemouth</t>
   </si>
   <si>
-    <t>Arsenal vs Real Madrid</t>
-  </si>
-  <si>
     <t>Arsenal Women v Manchester United Women</t>
+  </si>
+  <si>
+    <t>Arsenal v Real Madrid</t>
   </si>
 </sst>
 </file>
@@ -712,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1">
         <v>760000</v>
@@ -1031,7 +1031,7 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="1">
         <v>52632</v>

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CB8F31-C074-CD4B-9D0F-3BE4B272D12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC8B873-8370-F64D-A57F-293C9A83ED75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34000" yWindow="880" windowWidth="26700" windowHeight="14880" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="24.25 Budget Targets" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24.25 Budget Targets'!$A$1:$C$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24.25 Budget Targets'!$A$1:$C$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>Fixture Name</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Arsenal v Real Madrid</t>
+  </si>
+  <si>
+    <t>Arsenal Women v Olympique Lyonnais Féminin</t>
   </si>
 </sst>
 </file>
@@ -210,12 +213,24 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0_);[Red]\(&quot;£&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -239,16 +254,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="10" formatCode="&quot;£&quot;#,##0_);[Red]\(&quot;£&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -264,15 +339,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{066043E1-9B4C-CF4A-9F5C-F96834F9F44D}" name="Table1" displayName="Table1" ref="A1:C46" totalsRowShown="0">
-  <autoFilter ref="A1:C46" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C46">
-    <sortCondition descending="1" ref="A1:A46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{066043E1-9B4C-CF4A-9F5C-F96834F9F44D}" name="Table1" displayName="Table1" ref="A1:C47" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:C47" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C47">
+    <sortCondition descending="1" ref="A1:A47"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8ABEC191-56FB-3547-AABF-6D1CFED75A85}" name="EventCompetition"/>
-    <tableColumn id="2" xr3:uid="{F4E9E6A5-D5F0-614E-B547-B903035C3583}" name="Fixture Name"/>
-    <tableColumn id="3" xr3:uid="{704AA9EE-666F-1E42-A3D9-DCE835C8EBA5}" name="Budget Target" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8ABEC191-56FB-3547-AABF-6D1CFED75A85}" name="EventCompetition" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{F4E9E6A5-D5F0-614E-B547-B903035C3583}" name="Fixture Name" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{704AA9EE-666F-1E42-A3D9-DCE835C8EBA5}" name="Budget Target" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -595,522 +670,534 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="2" width="48.5" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="2">
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="2">
         <v>712500</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="2">
         <v>490113</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="2">
         <v>394122</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="2">
         <v>490113</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="2">
         <v>760000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="2">
         <v>285000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="2">
         <v>617500</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="2">
         <v>570000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="2">
         <v>469797</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="2">
         <v>570000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="2">
         <v>807500</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="2">
         <v>319462</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="2">
         <v>617500</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="2">
         <v>469797</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="2">
         <v>390059</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="2">
         <v>588136</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="2">
         <v>492653</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="2">
         <v>588136</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="2">
         <v>492653</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="2">
         <v>390059</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="2">
         <v>807500</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="2">
         <v>617500</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C29" s="2">
         <v>807500</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="2">
         <v>617500</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="2">
         <v>712500</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C32" s="2">
         <v>113800</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33" s="2">
         <v>380000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="2">
         <v>113800</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C35" s="2">
         <v>97412</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C36" s="2">
         <v>97412</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C37" s="2">
         <v>199265</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C38" s="2">
         <v>199265</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C39" s="2">
         <v>199265</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C40" s="2">
         <v>52632</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C41" s="2">
         <v>43860</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C42" s="2">
         <v>28636</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C43" s="2">
         <v>52632</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C44" s="2">
         <v>38182</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C45" s="2">
         <v>48256</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C46" s="2">
         <v>38182</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C47" s="2">
         <v>52632</v>
       </c>
     </row>

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC8B873-8370-F64D-A57F-293C9A83ED75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AE89FD-A6E2-A14C-8656-1F7251E2D967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34000" yWindow="880" windowWidth="26700" windowHeight="14880" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
@@ -275,6 +275,7 @@
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="10" formatCode="&quot;£&quot;#,##0_);[Red]\(&quot;£&quot;#,##0\)"/>
     </dxf>
     <dxf>
       <font>
@@ -299,7 +300,6 @@
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="10" formatCode="&quot;£&quot;#,##0_);[Red]\(&quot;£&quot;#,##0\)"/>
     </dxf>
     <dxf>
       <font>
@@ -339,15 +339,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{066043E1-9B4C-CF4A-9F5C-F96834F9F44D}" name="Table1" displayName="Table1" ref="A1:C47" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{066043E1-9B4C-CF4A-9F5C-F96834F9F44D}" name="Table1" displayName="Table1" ref="A1:C47" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C47" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C47">
     <sortCondition descending="1" ref="A1:A47"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8ABEC191-56FB-3547-AABF-6D1CFED75A85}" name="EventCompetition" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{F4E9E6A5-D5F0-614E-B547-B903035C3583}" name="Fixture Name" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{704AA9EE-666F-1E42-A3D9-DCE835C8EBA5}" name="Budget Target" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8ABEC191-56FB-3547-AABF-6D1CFED75A85}" name="EventCompetition" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F4E9E6A5-D5F0-614E-B547-B903035C3583}" name="Fixture Name" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{704AA9EE-666F-1E42-A3D9-DCE835C8EBA5}" name="Budget Target" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -673,7 +673,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,7 +714,7 @@
         <v>54</v>
       </c>
       <c r="C3" s="2">
-        <v>10001</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AE89FD-A6E2-A14C-8656-1F7251E2D967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24B953E-7923-8646-A248-E91B06C74955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34000" yWindow="880" windowWidth="26700" windowHeight="14880" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
@@ -231,6 +231,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -254,11 +255,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,7 +675,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,7 +723,7 @@
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="2">

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24B953E-7923-8646-A248-E91B06C74955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3546EC9F-9227-7042-91BF-E2F6BC1CA7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34000" yWindow="880" windowWidth="26700" windowHeight="14880" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
   <sheets>
     <sheet name="24.25 Budget Targets" sheetId="2" r:id="rId1"/>
@@ -255,12 +255,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -723,7 +722,7 @@
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="2">

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3546EC9F-9227-7042-91BF-E2F6BC1CA7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CA3518-653D-E048-A17C-36113A3BA843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="24.25 Budget Targets" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24.25 Budget Targets'!$A$1:$C$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24.25 Budget Targets'!$A$1:$C$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
   <si>
     <t>Fixture Name</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Arsenal Women v Olympique Lyonnais Féminin</t>
+  </si>
+  <si>
+    <t>Arsenal v Semi Final UCL (TBC)</t>
   </si>
 </sst>
 </file>
@@ -255,11 +258,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,10 +344,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{066043E1-9B4C-CF4A-9F5C-F96834F9F44D}" name="Table1" displayName="Table1" ref="A1:C47" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C47" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C47">
-    <sortCondition descending="1" ref="A1:A47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{066043E1-9B4C-CF4A-9F5C-F96834F9F44D}" name="Table1" displayName="Table1" ref="A1:C48" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C48" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C48">
+    <sortCondition descending="1" ref="A1:A48"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8ABEC191-56FB-3547-AABF-6D1CFED75A85}" name="EventCompetition" dataDxfId="2"/>
@@ -671,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,8 +803,8 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>53</v>
+      <c r="B11" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C11" s="2">
         <v>760000</v>
@@ -811,21 +815,21 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2">
-        <v>285000</v>
+        <v>760000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2">
-        <v>617500</v>
+        <v>285000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -833,10 +837,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2">
-        <v>570000</v>
+        <v>617500</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -844,10 +848,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
-        <v>469797</v>
+        <v>570000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -855,10 +859,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2">
-        <v>570000</v>
+        <v>469797</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -866,10 +870,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2">
-        <v>807500</v>
+        <v>570000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -877,10 +881,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2">
-        <v>319462</v>
+        <v>807500</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -888,10 +892,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>617500</v>
+        <v>319462</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -899,10 +903,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2">
-        <v>469797</v>
+        <v>617500</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -910,10 +914,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2">
-        <v>390059</v>
+        <v>469797</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -921,10 +925,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2">
-        <v>588136</v>
+        <v>390059</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -932,10 +936,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
-        <v>492653</v>
+        <v>588136</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -943,10 +947,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="2">
-        <v>588136</v>
+        <v>492653</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -954,10 +958,10 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2">
-        <v>492653</v>
+        <v>588136</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -965,10 +969,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>390059</v>
+        <v>492653</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -976,10 +980,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2">
-        <v>807500</v>
+        <v>390059</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -987,10 +991,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="2">
-        <v>617500</v>
+        <v>807500</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -998,10 +1002,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2">
-        <v>807500</v>
+        <v>617500</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1009,10 +1013,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C30" s="2">
-        <v>617500</v>
+        <v>807500</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1020,54 +1024,54 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C31" s="2">
-        <v>712500</v>
+        <v>617500</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>113800</v>
+        <v>712500</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C33" s="2">
-        <v>380000</v>
+        <v>113800</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C34" s="2">
-        <v>113800</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2">
-        <v>97412</v>
+        <v>113800</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1075,7 +1079,7 @@
         <v>42</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" s="2">
         <v>97412</v>
@@ -1083,13 +1087,13 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="C37" s="2">
-        <v>199265</v>
+        <v>97412</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1097,7 +1101,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2">
         <v>199265</v>
@@ -1108,7 +1112,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C39" s="2">
         <v>199265</v>
@@ -1116,13 +1120,13 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C40" s="2">
-        <v>52632</v>
+        <v>199265</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1130,10 +1134,10 @@
         <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C41" s="2">
-        <v>43860</v>
+        <v>52632</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1141,10 +1145,10 @@
         <v>7</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C42" s="2">
-        <v>28636</v>
+        <v>43860</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1152,10 +1156,10 @@
         <v>7</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C43" s="2">
-        <v>52632</v>
+        <v>28636</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1163,10 +1167,10 @@
         <v>7</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C44" s="2">
-        <v>38182</v>
+        <v>52632</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1174,10 +1178,10 @@
         <v>7</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C45" s="2">
-        <v>48256</v>
+        <v>38182</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1185,10 +1189,10 @@
         <v>7</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2">
-        <v>38182</v>
+        <v>48256</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1196,9 +1200,20 @@
         <v>7</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="2">
+        <v>38182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C48" s="2">
         <v>52632</v>
       </c>
     </row>

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CA3518-653D-E048-A17C-36113A3BA843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BF8E31-EF99-1148-85BA-ABF7F3E17558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="24.25 Budget Targets" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24.25 Budget Targets'!$A$1:$C$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24.25 Budget Targets'!$A:$D</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>Fixture Name</t>
   </si>
@@ -206,17 +206,18 @@
     <t>Arsenal Women v Olympique Lyonnais Féminin</t>
   </si>
   <si>
-    <t>Arsenal v Semi Final UCL (TBC)</t>
+    <t>KickOffEventStart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0_);[Red]\(&quot;£&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,16 +238,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -254,21 +275,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -344,15 +415,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{066043E1-9B4C-CF4A-9F5C-F96834F9F44D}" name="Table1" displayName="Table1" ref="A1:C48" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C48" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C48">
-    <sortCondition descending="1" ref="A1:A48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{066043E1-9B4C-CF4A-9F5C-F96834F9F44D}" name="Table1" displayName="Table1" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D1048576" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D48">
+    <sortCondition ref="A1:A48"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8ABEC191-56FB-3547-AABF-6D1CFED75A85}" name="EventCompetition" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{F4E9E6A5-D5F0-614E-B547-B903035C3583}" name="Fixture Name" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{704AA9EE-666F-1E42-A3D9-DCE835C8EBA5}" name="Budget Target" dataDxfId="0"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8ABEC191-56FB-3547-AABF-6D1CFED75A85}" name="EventCompetition" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{F4E9E6A5-D5F0-614E-B547-B903035C3583}" name="Fixture Name" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{F6064E50-30D6-E040-B32C-8706D45D454F}" name="KickOffEventStart" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{704AA9EE-666F-1E42-A3D9-DCE835C8EBA5}" name="Budget Target" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -675,546 +747,691 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="48.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45787.479166666657</v>
+      </c>
+      <c r="D2" s="2">
+        <v>52632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7">
+        <v>45557.479166666657</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45571.541666666657</v>
+      </c>
+      <c r="D4" s="2">
+        <v>28636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="7">
+        <v>45577.53125</v>
+      </c>
+      <c r="D5" s="2">
+        <v>52632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45604.791666666657</v>
+      </c>
+      <c r="D6" s="2">
+        <v>38182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="7">
+        <v>45738.729166666657</v>
+      </c>
+      <c r="D7" s="2">
+        <v>48256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45634.583333333343</v>
+      </c>
+      <c r="D8" s="2">
+        <v>38182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45704.520833333343</v>
+      </c>
+      <c r="D9" s="2">
+        <v>52632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="6">
+        <v>45795.583333333343</v>
+      </c>
+      <c r="D10" s="2">
+        <v>199265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45770.791666666657</v>
+      </c>
+      <c r="D11" s="2">
+        <v>199265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45560.78125</v>
+      </c>
+      <c r="D12" s="2">
+        <v>199265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>45814.6875</v>
+      </c>
+      <c r="D13" s="2">
+        <v>97412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45815.6875</v>
+      </c>
+      <c r="D14" s="2">
+        <v>97412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45515.541666666657</v>
+      </c>
+      <c r="D15" s="2">
+        <v>113800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6">
+        <v>45669.625</v>
+      </c>
+      <c r="D16" s="2">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45511.708333333343</v>
+      </c>
+      <c r="D17" s="2">
+        <v>113800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="6">
+        <v>45780.6875</v>
+      </c>
+      <c r="D18" s="2">
+        <v>617500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45770.791666666657</v>
+      </c>
+      <c r="D19" s="2">
+        <v>570000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="6">
+        <v>45521.583333333343</v>
+      </c>
+      <c r="D20" s="2">
+        <v>469797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="5">
+        <v>45759.6875</v>
+      </c>
+      <c r="D21" s="2">
+        <v>570000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="6">
+        <v>45795.583333333343</v>
+      </c>
+      <c r="D22" s="2">
+        <v>807500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="5">
+        <v>45535.479166666657</v>
+      </c>
+      <c r="D23" s="2">
+        <v>319462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="6">
+        <v>45748.78125</v>
+      </c>
+      <c r="D24" s="2">
+        <v>617500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="5">
+        <v>45563.583333333343</v>
+      </c>
+      <c r="D25" s="2">
+        <v>469797</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="6">
+        <v>45570.583333333343</v>
+      </c>
+      <c r="D26" s="2">
+        <v>390059</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="5">
+        <v>45592.6875</v>
+      </c>
+      <c r="D27" s="2">
+        <v>588136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="6">
+        <v>45619.625</v>
+      </c>
+      <c r="D28" s="2">
+        <v>492653</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="5">
+        <v>45669.625</v>
+      </c>
+      <c r="D29" s="2">
+        <v>588136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="6">
+        <v>45640.625</v>
+      </c>
+      <c r="D30" s="2">
+        <v>492653</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="5">
+        <v>45653.84375</v>
+      </c>
+      <c r="D31" s="2">
+        <v>390059</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="6">
+        <v>45672.833333333343</v>
+      </c>
+      <c r="D32" s="2">
+        <v>807500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="5">
+        <v>45675.729166666657</v>
+      </c>
+      <c r="D33" s="2">
+        <v>617500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6">
+        <v>45690.6875</v>
+      </c>
+      <c r="D34" s="2">
+        <v>807500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="5">
+        <v>45710.625</v>
+      </c>
+      <c r="D35" s="2">
+        <v>617500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="6">
+        <v>45732.5625</v>
+      </c>
+      <c r="D36" s="2">
+        <v>712500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="5">
+        <v>45728.833333333343</v>
+      </c>
+      <c r="D37" s="2">
+        <v>712500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="6">
+        <v>45411.833333333336</v>
+      </c>
+      <c r="D38" s="2">
+        <v>760000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="5">
+        <v>45566.791666666657</v>
+      </c>
+      <c r="D39" s="2">
+        <v>490113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="6">
+        <v>45587.791666666657</v>
+      </c>
+      <c r="D40" s="2">
+        <v>394122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="5">
+        <v>45637.833333333343</v>
+      </c>
+      <c r="D41" s="2">
+        <v>490113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="6">
+        <v>45755.791666666657</v>
+      </c>
+      <c r="D42" s="2">
+        <v>760000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="5">
+        <v>45679.833333333343</v>
+      </c>
+      <c r="D43" s="2">
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C44" s="6">
+        <v>45581.791666666657</v>
+      </c>
+      <c r="D44" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C45" s="5">
+        <v>45742.833333333343</v>
+      </c>
+      <c r="D45" s="2">
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B46" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C46" s="6">
+        <v>45766.479166666657</v>
+      </c>
+      <c r="D46" s="2">
         <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C47" s="5">
+        <v>45617.833333333343</v>
+      </c>
+      <c r="D47" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C48" s="6">
+        <v>45644.833333333343</v>
+      </c>
+      <c r="D48" s="2">
         <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="2">
-        <v>712500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2">
-        <v>490113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2">
-        <v>394122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2">
-        <v>490113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="2">
-        <v>760000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="2">
-        <v>760000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2">
-        <v>285000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="2">
-        <v>617500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2">
-        <v>570000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="2">
-        <v>469797</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="2">
-        <v>570000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="2">
-        <v>807500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="2">
-        <v>319462</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="2">
-        <v>617500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="2">
-        <v>469797</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="2">
-        <v>390059</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2">
-        <v>588136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="2">
-        <v>492653</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="2">
-        <v>588136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="2">
-        <v>492653</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="2">
-        <v>390059</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2">
-        <v>807500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="2">
-        <v>617500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="2">
-        <v>807500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="2">
-        <v>617500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="2">
-        <v>712500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="2">
-        <v>113800</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="2">
-        <v>380000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="2">
-        <v>113800</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="2">
-        <v>97412</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="2">
-        <v>97412</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="2">
-        <v>199265</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="2">
-        <v>199265</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="2">
-        <v>199265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="2">
-        <v>52632</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="2">
-        <v>43860</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="2">
-        <v>28636</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="2">
-        <v>52632</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="2">
-        <v>38182</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="2">
-        <v>48256</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="2">
-        <v>38182</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="2">
-        <v>52632</v>
       </c>
     </row>
   </sheetData>

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BF8E31-EF99-1148-85BA-ABF7F3E17558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99B3C5E-3AFF-284D-BC39-95B7D64B51B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
@@ -290,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -298,12 +298,24 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="10" formatCode="&quot;£&quot;#,##0_);[Red]\(&quot;£&quot;#,##0\)"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -339,19 +351,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="10" formatCode="&quot;£&quot;#,##0_);[Red]\(&quot;£&quot;#,##0\)"/>
     </dxf>
     <dxf>
       <font>
@@ -423,8 +422,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8ABEC191-56FB-3547-AABF-6D1CFED75A85}" name="EventCompetition" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{F4E9E6A5-D5F0-614E-B547-B903035C3583}" name="Fixture Name" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{F6064E50-30D6-E040-B32C-8706D45D454F}" name="KickOffEventStart" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{704AA9EE-666F-1E42-A3D9-DCE835C8EBA5}" name="Budget Target" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{F6064E50-30D6-E040-B32C-8706D45D454F}" name="KickOffEventStart" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{704AA9EE-666F-1E42-A3D9-DCE835C8EBA5}" name="Budget Target" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -749,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,7 +796,7 @@
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>45557.479166666657</v>
       </c>
       <c r="D3" s="2">
@@ -825,7 +824,7 @@
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>45577.53125</v>
       </c>
       <c r="D5" s="2">
@@ -853,7 +852,7 @@
       <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>45738.729166666657</v>
       </c>
       <c r="D7" s="2">
@@ -881,7 +880,7 @@
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>45704.520833333343</v>
       </c>
       <c r="D9" s="2">
@@ -937,7 +936,7 @@
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>45814.6875</v>
       </c>
       <c r="D13" s="2">
@@ -1288,7 +1287,7 @@
         <v>29</v>
       </c>
       <c r="C38" s="6">
-        <v>45411.833333333336</v>
+        <v>45776.833333333336</v>
       </c>
       <c r="D38" s="2">
         <v>760000</v>

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99B3C5E-3AFF-284D-BC39-95B7D64B51B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900C898C-D429-7F42-902A-7E8A62ED6CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
@@ -748,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/API/TJT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38CD4CD-5877-5149-98AE-9FD08E99D564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8464A1CF-834F-2D46-878D-2E96EE856DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
+    <workbookView xWindow="31520" yWindow="2000" windowWidth="28800" windowHeight="16120" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
   <sheets>
     <sheet name="24.25 Budget Targets" sheetId="2" r:id="rId1"/>
@@ -658,7 +658,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8464A1CF-834F-2D46-878D-2E96EE856DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAC2A7F-C78B-574D-BA9D-AC3E6F846371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31520" yWindow="2000" windowWidth="28800" windowHeight="16120" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
@@ -658,7 +658,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAC2A7F-C78B-574D-BA9D-AC3E6F846371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1964576-2562-7A49-8729-BE3C7239AF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31520" yWindow="2000" windowWidth="28800" windowHeight="16120" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
+    <workbookView xWindow="33320" yWindow="820" windowWidth="32680" windowHeight="18120" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
   <sheets>
     <sheet name="24.25 Budget Targets" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="64">
   <si>
     <t>Fixture Name</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Arsenal Women v Vålerenga Women</t>
+  </si>
+  <si>
+    <t>Robbie Williams Live 2025 (Saturday)</t>
   </si>
 </sst>
 </file>
@@ -657,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1178,7 +1181,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="C37" s="4">
         <v>45815.6875</v>

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1964576-2562-7A49-8729-BE3C7239AF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D8B2A6-F016-D04B-8702-A191620FB735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33320" yWindow="820" windowWidth="32680" windowHeight="18120" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
+    <workbookView xWindow="73440" yWindow="2600" windowWidth="32680" windowHeight="18120" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
   <sheets>
     <sheet name="24.25 Budget Targets" sheetId="2" r:id="rId1"/>
@@ -660,8 +660,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1346,6 +1347,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/budget_target_2425.xlsx
+++ b/budget_target_2425.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/APPS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmunthali/Documents/PYTHON/AFC-streamlit-apps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D8B2A6-F016-D04B-8702-A191620FB735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599F2C71-09BC-D642-B327-1B525EC6ED23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="73440" yWindow="2600" windowWidth="32680" windowHeight="18120" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="32000" windowHeight="17500" xr2:uid="{322D1251-3F46-2848-B295-F20D3EBD7724}"/>
   </bookViews>
   <sheets>
     <sheet name="24.25 Budget Targets" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24.25 Budget Targets'!$A$1:$D$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24.25 Budget Targets'!$A$1:$E$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="75">
   <si>
     <t>Fixture Name</t>
   </si>
@@ -232,6 +232,39 @@
   </si>
   <si>
     <t>Robbie Williams Live 2025 (Saturday)</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Arsenal v Crystal Palace 25/26PL</t>
+  </si>
+  <si>
+    <t>2025/2026</t>
+  </si>
+  <si>
+    <t>£600,000 </t>
+  </si>
+  <si>
+    <t>Arsenal v West Ham United 25/26PL</t>
+  </si>
+  <si>
+    <t>£620,000 </t>
+  </si>
+  <si>
+    <t>Arsenal v Nottingham Forest 25/26PL</t>
+  </si>
+  <si>
+    <t>Arsenal v Leeds United 25/26PL</t>
+  </si>
+  <si>
+    <t>Arsenal v Manchester City 25/26PL</t>
+  </si>
+  <si>
+    <t>£850,000 </t>
+  </si>
+  <si>
+    <t>2024/2025</t>
   </si>
 </sst>
 </file>
@@ -243,7 +276,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -256,6 +289,18 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -293,21 +338,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="10" formatCode="&quot;£&quot;#,##0_);[Red]\(&quot;£&quot;#,##0\)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh:mm:ss"/>
@@ -326,15 +385,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{066043E1-9B4C-CF4A-9F5C-F96834F9F44D}" name="Table1" displayName="Table1" ref="A1:D48" totalsRowShown="0">
-  <autoFilter ref="A1:D48" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{066043E1-9B4C-CF4A-9F5C-F96834F9F44D}" name="Table1" displayName="Table1" ref="A1:E53" totalsRowShown="0">
+  <autoFilter ref="A1:E53" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E48">
     <sortCondition descending="1" ref="A1:A48"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8ABEC191-56FB-3547-AABF-6D1CFED75A85}" name="EventCompetition"/>
     <tableColumn id="2" xr3:uid="{F4E9E6A5-D5F0-614E-B547-B903035C3583}" name="Fixture Name"/>
-    <tableColumn id="5" xr3:uid="{680B9995-9EA9-6A4B-9CD5-C3D7E1114D1C}" name="KickOffEventStart" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{680B9995-9EA9-6A4B-9CD5-C3D7E1114D1C}" name="KickOffEventStart" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{C1FE863F-1534-A542-9F01-6FD24BC78E15}" name="Season" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{704AA9EE-666F-1E42-A3D9-DCE835C8EBA5}" name="Budget Target" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -658,694 +718,924 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995DD8E3-8446-B443-9BCB-9D0C4C075302}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="41.6640625" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="3" max="4" width="41.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>45581.791666666657</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="7">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>45742.833333333343</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="7">
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>45766.479166666657</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="7">
         <v>20000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>45617.833333333343</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="7">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>45644.833333333343</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="7">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>45728.833333333343</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="7">
         <v>712500</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>45776.833333333336</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="7">
         <v>760000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>45566.791666666657</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="7">
         <v>490113</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>45587.791666666657</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="7">
         <v>394122</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>45637.833333333343</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="7">
         <v>490113</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>45755.791666666657</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="7">
         <v>760000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>45679.833333333343</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="7">
         <v>285000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>45780.6875</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="7">
         <v>617500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>45770.791666666657</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="7">
         <v>570000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>45521.583333333343</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="7">
         <v>469797</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>45759.6875</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="7">
         <v>570000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>45795.583333333343</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="7">
         <v>807500</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>45535.479166666657</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="7">
         <v>319462</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>45748.78125</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="7">
         <v>617500</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>45563.583333333343</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="7">
         <v>469797</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>45570.583333333343</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="7">
         <v>390059</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>45592.6875</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="7">
         <v>588136</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>45619.625</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="7">
         <v>492653</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>45669.625</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="7">
         <v>588136</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>45640.625</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="7">
         <v>492653</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>45653.84375</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="7">
         <v>390059</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>45672.833333333343</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="7">
         <v>807500</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>45675.729166666657</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="7">
         <v>617500</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>45690.6875</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="7">
         <v>807500</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>45710.625</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="7">
         <v>617500</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>45732.5625</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="7">
         <v>712500</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>38</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>45511.708333333343</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="7">
         <v>113800</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>45669.625</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="7">
         <v>380000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>45515.541666666657</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="7">
         <v>113800</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
       <c r="B36" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>45814.6875</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="7">
         <v>97412</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>45815.6875</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="7">
         <v>97412</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>45795.583333333343</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="7">
         <v>199265</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>45770.791666666657</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="7">
         <v>199265</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>45560.78125</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="7">
         <v>199265</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>45787.479166666657</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="7">
         <v>52632</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>6</v>
       </c>
       <c r="B42" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>45557.479166666657</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="7">
         <v>43860</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>45571.541666666657</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="7">
         <v>28636</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>6</v>
       </c>
       <c r="B44" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>45577.53125</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="7">
         <v>52632</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>6</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>45604.791666666657</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="7">
         <v>38182</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>45738.729166666657</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="7">
         <v>48256</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>45634.583333333343</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="7">
         <v>38182</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>45704.520833333343</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="7">
         <v>52632</v>
       </c>
     </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="5">
+        <v>45955.583333333336</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="5">
+        <v>45934.583333333336</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="5">
+        <v>45913.583333333336</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="5">
+        <v>45892.583333333336</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="5">
+        <v>45920.583333333336</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
@@ -1371,19 +1661,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1397,7 +1687,7 @@
       <c r="D2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>45815.6875</v>
       </c>
     </row>
@@ -1411,7 +1701,7 @@
       <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>45814.6875</v>
       </c>
     </row>
@@ -1428,7 +1718,7 @@
       <c r="D4" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>45795.583333333343</v>
       </c>
     </row>
@@ -1445,7 +1735,7 @@
       <c r="D5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>45787.479166666657</v>
       </c>
     </row>
@@ -1462,7 +1752,7 @@
       <c r="D6" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>45780.6875</v>
       </c>
     </row>
@@ -1479,7 +1769,7 @@
       <c r="D7" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>45770.791666666657</v>
       </c>
     </row>
@@ -1496,7 +1786,7 @@
       <c r="D8" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>45766.479166666657</v>
       </c>
     </row>
@@ -1513,7 +1803,7 @@
       <c r="D9" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>45762.770833333343</v>
       </c>
     </row>
@@ -1530,7 +1820,7 @@
       <c r="D10" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>45759.6875</v>
       </c>
     </row>
@@ -1547,7 +1837,7 @@
       <c r="D11" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>45755.791666666657</v>
       </c>
     </row>
@@ -1564,7 +1854,7 @@
       <c r="D12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>45748.78125</v>
       </c>
     </row>
@@ -1581,7 +1871,7 @@
       <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>45742.833333333343</v>
       </c>
     </row>
@@ -1598,7 +1888,7 @@
       <c r="D14" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>45738.729166666657</v>
       </c>
     </row>
@@ -1615,7 +1905,7 @@
       <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>45732.5625</v>
       </c>
     </row>
@@ -1632,7 +1922,7 @@
       <c r="D16" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>45728.833333333343</v>
       </c>
     </row>
@@ -1649,7 +1939,7 @@
       <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>45710.625</v>
       </c>
     </row>
@@ -1666,7 +1956,7 @@
       <c r="D18" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>45704.520833333343</v>
       </c>
     </row>
@@ -1683,7 +1973,7 @@
       <c r="D19" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>45690.6875</v>
       </c>
     </row>
@@ -1700,7 +1990,7 @@
       <c r="D20" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>45679.833333333343</v>
       </c>
     </row>
@@ -1717,7 +2007,7 @@
       <c r="D21" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>45675.729166666657</v>
       </c>
     </row>
@@ -1734,7 +2024,7 @@
       <c r="D22" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>45672.833333333343</v>
       </c>
     </row>
@@ -1751,7 +2041,7 @@
       <c r="D23" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>45672.833333333343</v>
       </c>
     </row>
@@ -1768,7 +2058,7 @@
       <c r="D24" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>45669.625</v>
       </c>
     </row>
@@ -1785,7 +2075,7 @@
       <c r="D25" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>45664.833333333343</v>
       </c>
     </row>
@@ -1802,7 +2092,7 @@
       <c r="D26" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>45653.84375</v>
       </c>
     </row>
@@ -1819,7 +2109,7 @@
       <c r="D27" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>45653.84375</v>
       </c>
     </row>
@@ -1836,7 +2126,7 @@
       <c r="D28" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>45644.8125</v>
       </c>
     </row>
@@ -1853,7 +2143,7 @@
       <c r="D29" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>45644.833333333343</v>
       </c>
     </row>
@@ -1870,7 +2160,7 @@
       <c r="D30" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>45640.625</v>
       </c>
     </row>
@@ -1887,7 +2177,7 @@
       <c r="D31" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>45640.625</v>
       </c>
     </row>
@@ -1904,7 +2194,7 @@
       <c r="D32" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>45637.833333333343</v>
       </c>
     </row>
@@ -1921,7 +2211,7 @@
       <c r="D33" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>45634.583333333343</v>
       </c>
     </row>
@@ -1938,7 +2228,7 @@
       <c r="D34" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>45630.84375</v>
       </c>
     </row>
@@ -1955,7 +2245,7 @@
       <c r="D35" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>45630.84375</v>
       </c>
     </row>
@@ -1972,7 +2262,7 @@
       <c r="D36" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>45619.625</v>
       </c>
     </row>
@@ -1989,7 +2279,7 @@
       <c r="D37" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>45619.625</v>
       </c>
     </row>
@@ -2006,7 +2296,7 @@
       <c r="D38" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>45617.833333333343</v>
       </c>
     </row>
@@ -2023,7 +2313,7 @@
       <c r="D39" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>45604.791666666657</v>
       </c>
     </row>
@@ -2040,7 +2330,7 @@
       <c r="D40" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>45592.6875</v>
       </c>
     </row>
@@ -2057,7 +2347,7 @@
       <c r="D41" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>45592.6875</v>
       </c>
     </row>
@@ -2074,7 +2364,7 @@
       <c r="D42" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>45587.791666666657</v>
       </c>
     </row>
@@ -2091,7 +2381,7 @@
       <c r="D43" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>45581.791666666657</v>
       </c>
     </row>
@@ -2108,7 +2398,7 @@
       <c r="D44" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>45577.53125</v>
       </c>
     </row>
@@ -2125,7 +2415,7 @@
       <c r="D45" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>45571.541666666657</v>
       </c>
     </row>
@@ -2142,7 +2432,7 @@
       <c r="D46" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>45570.583333333343</v>
       </c>
     </row>
@@ -2159,7 +2449,7 @@
       <c r="D47" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>45570.583333333343</v>
       </c>
     </row>
@@ -2176,7 +2466,7 @@
       <c r="D48" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>45566.791666666657</v>
       </c>
     </row>
@@ -2193,7 +2483,7 @@
       <c r="D49" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>45563.583333333343</v>
       </c>
     </row>
@@ -2210,7 +2500,7 @@
       <c r="D50" t="s">
         <v>61</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>45563.583333333343</v>
       </c>
     </row>
@@ -2227,7 +2517,7 @@
       <c r="D51" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>45560.78125</v>
       </c>
     </row>
@@ -2244,7 +2534,7 @@
       <c r="D52" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>45557.479166666657</v>
       </c>
     </row>
@@ -2261,7 +2551,7 @@
       <c r="D53" t="s">
         <v>56</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>45535.479166666657</v>
       </c>
     </row>
@@ -2278,7 +2568,7 @@
       <c r="D54" t="s">
         <v>61</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>45535.479166666657</v>
       </c>
     </row>
@@ -2295,7 +2585,7 @@
       <c r="D55" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>45521.583333333343</v>
       </c>
     </row>
@@ -2312,7 +2602,7 @@
       <c r="D56" t="s">
         <v>61</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <v>45521.583333333343</v>
       </c>
     </row>
@@ -2329,7 +2619,7 @@
       <c r="D57" t="s">
         <v>56</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <v>45515.541666666657</v>
       </c>
     </row>
@@ -2343,7 +2633,7 @@
       <c r="D58" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>45511.708333333343</v>
       </c>
     </row>
